--- a/data/long_razon/P23_9-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_9-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 122,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-55,43; -6,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 139,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 22,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 105,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,29; -2,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 29,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 8,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 83,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,69; -4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 40,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,32; -1,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-33,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,87; 145,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-48,78; -14,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 93,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 46,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,75; 102,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 4,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 53,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -13,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,81; 76,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 5,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 57,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -6,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_9-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_9-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1437728678217061</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.346487366883069</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.009404574238718275</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7376066021532274</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1027018814446477</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.08468001527975293</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4541893452607171</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2318520877749364</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.05146503526337335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2938823793522335</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5620556349725038</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4922220936420486</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1215940571236463</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3362234977584461</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3915175025062386</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.05379881472477862</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3963670603409499</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3388039358570882</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.8349120767801906</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.09936744649764258</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.129388908766054</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.775400852236577</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2208896427357779</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.3232477356776577</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.9656922034864832</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.04259242207647349</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.4312380527259538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1163031902895824</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1821194798061804</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.419298375080425</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4439660361040028</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2119385532620244</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3249554570741078</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2569511181542901</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1971052200737202</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3717420541351153</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.194068919515906</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3609468460190729</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5757141577036173</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.1070689892240795</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3630252830030746</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4652111853552809</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.01308571254929606</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3213341931084549</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.49354455291824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.5337522037036513</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06687167037138655</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.1774919701970223</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.871888450794811</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.03155593426412226</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.1171671152745421</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5531941431948741</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.05829135973309556</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.2362358082626321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.066678580985214</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3480742928862822</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1722064793973751</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.427261485626844</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1571546841767089</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.5942906022718676</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.7119727148338886</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1339732656642581</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.4103207834618489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.4342913432043448</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4934535638631491</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4201625953874308</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1062072091263402</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.0670501049275368</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.7088110313854941</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.3881696247068885</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2659847974043021</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5339711937682745</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.952506925260451</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.169316405038503</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.1753959849048438</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8865050201617831</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.4612666564610632</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.4566619762912711</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.126955912776173</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.0267204995083061</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.2342266573713798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.3810953540352026</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2777236680962772</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.2646632744021074</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.495054033273146</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.08226825928363429</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.3714155057246802</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4364585423586051</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1858029344112158</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.3217853288999843</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.08988456518997559</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3967435300923716</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4138433411551709</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2413754815661644</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1990448392928842</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4740971104163511</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2428629194925115</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2685278533303583</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.4196794166805417</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.6702107227246824</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.1519789126685836</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.005429678208272903</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7814406022267317</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.0352092416207864</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.2628348966992451</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6538206491498608</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.09901749524075554</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.1953445158934717</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
